--- a/biology/Zoologie/Alburnoides_bipunctatus/Alburnoides_bipunctatus.xlsx
+++ b/biology/Zoologie/Alburnoides_bipunctatus/Alburnoides_bipunctatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alburnoides bipunctatus
-Le Spirlin (Alburnoides bipunctatus), ou Ablette spirlin[1] est un poisson d’eau douce d’Eurasie.
+Le Spirlin (Alburnoides bipunctatus), ou Ablette spirlin est un poisson d’eau douce d’Eurasie.
 Il ne faut pas le confondre avec l'Ablette (Alburnus alburnus)
 </t>
         </is>
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Petit poisson de 10 à 12 cm pouvant atteindre 16 cm, il est de couleur grise avec des reflets argentés et  une partie dorsale brun verdâtre. Il possède une ligne de points sur toute la longueur des flancs.
 </t>
@@ -544,7 +558,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fréquente les rivières non polluées et bien oxygénées, mais évite les eaux froides. On le trouve également en lac.
 </t>
@@ -575,7 +591,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce poisson se nourrit d'algues ainsi que d'insectes et larves qu'il prélève en pleine eau à contre-courant ou gobe en surface.
 </t>
@@ -606,7 +624,9 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Pendant la saison de frai, en mai-juin, dès l'âge de 2 ans, la femelle  se reproduit et libère des œufs à plusieurs reprises, avec un espacement de quelques jours pendant quelques semaines. Ces œufs se collent aux pierres et graviers du fond du cours d'eau, dans les interstices. De ce fait, en se déplaçant au cours de la période de fraie, le spirlin peut coloniser un vaste territoire.
 </t>
